--- a/Table Rates/LOLEA_sangria.xlsx
+++ b/Table Rates/LOLEA_sangria.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" hidePivotFieldList="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="11625" yWindow="2340" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="11625" yWindow="2340" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Lolea" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="53">
   <si>
     <t>Warehouse</t>
   </si>
@@ -152,17 +152,41 @@
     <t>WY</t>
   </si>
   <si>
-    <t>KY</t>
+    <t>Weight (and above)</t>
   </si>
   <si>
-    <t>Weight (and above)</t>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>IA</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>NH</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>RI</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>TX</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -193,6 +217,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="161"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -202,12 +232,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -228,9 +273,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
@@ -581,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G445"/>
+  <dimension ref="A1:G541"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A530" workbookViewId="0">
+      <selection activeCell="G541" sqref="G541"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -612,7 +660,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -906,7 +954,7 @@
       </c>
       <c r="C14" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>AZ</v>
+        <v>AR</v>
       </c>
       <c r="E14">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -929,7 +977,7 @@
       </c>
       <c r="C15" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>AZ</v>
+        <v>AR</v>
       </c>
       <c r="E15">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -952,7 +1000,7 @@
       </c>
       <c r="C16" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>AZ</v>
+        <v>AR</v>
       </c>
       <c r="E16">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -975,7 +1023,7 @@
       </c>
       <c r="C17" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>AZ</v>
+        <v>AR</v>
       </c>
       <c r="E17">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -998,7 +1046,7 @@
       </c>
       <c r="C18" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>AZ</v>
+        <v>AR</v>
       </c>
       <c r="E18">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -1021,7 +1069,7 @@
       </c>
       <c r="C19" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>AZ</v>
+        <v>AR</v>
       </c>
       <c r="E19">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -1044,7 +1092,7 @@
       </c>
       <c r="C20" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>AZ</v>
+        <v>AR</v>
       </c>
       <c r="E20">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -1067,7 +1115,7 @@
       </c>
       <c r="C21" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>AZ</v>
+        <v>AR</v>
       </c>
       <c r="E21">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -1090,7 +1138,7 @@
       </c>
       <c r="C22" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>AZ</v>
+        <v>AR</v>
       </c>
       <c r="E22">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -1113,7 +1161,7 @@
       </c>
       <c r="C23" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>AZ</v>
+        <v>AR</v>
       </c>
       <c r="E23">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -1136,7 +1184,7 @@
       </c>
       <c r="C24" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>AZ</v>
+        <v>AR</v>
       </c>
       <c r="E24">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -1159,7 +1207,7 @@
       </c>
       <c r="C25" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>AZ</v>
+        <v>AR</v>
       </c>
       <c r="E25">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -1182,7 +1230,7 @@
       </c>
       <c r="C26" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>CA</v>
+        <v>AZ</v>
       </c>
       <c r="E26">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -1205,7 +1253,7 @@
       </c>
       <c r="C27" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>CA</v>
+        <v>AZ</v>
       </c>
       <c r="E27">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -1228,7 +1276,7 @@
       </c>
       <c r="C28" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>CA</v>
+        <v>AZ</v>
       </c>
       <c r="E28">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -1251,7 +1299,7 @@
       </c>
       <c r="C29" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>CA</v>
+        <v>AZ</v>
       </c>
       <c r="E29">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -1274,7 +1322,7 @@
       </c>
       <c r="C30" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>CA</v>
+        <v>AZ</v>
       </c>
       <c r="E30">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -1297,7 +1345,7 @@
       </c>
       <c r="C31" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>CA</v>
+        <v>AZ</v>
       </c>
       <c r="E31">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -1320,7 +1368,7 @@
       </c>
       <c r="C32" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>CA</v>
+        <v>AZ</v>
       </c>
       <c r="E32">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -1343,7 +1391,7 @@
       </c>
       <c r="C33" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>CA</v>
+        <v>AZ</v>
       </c>
       <c r="E33">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -1366,7 +1414,7 @@
       </c>
       <c r="C34" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>CA</v>
+        <v>AZ</v>
       </c>
       <c r="E34">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -1389,7 +1437,7 @@
       </c>
       <c r="C35" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>CA</v>
+        <v>AZ</v>
       </c>
       <c r="E35">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -1412,7 +1460,7 @@
       </c>
       <c r="C36" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>CA</v>
+        <v>AZ</v>
       </c>
       <c r="E36">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -1435,7 +1483,7 @@
       </c>
       <c r="C37" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>CA</v>
+        <v>AZ</v>
       </c>
       <c r="E37">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -1458,7 +1506,7 @@
       </c>
       <c r="C38" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>CO</v>
+        <v>CA</v>
       </c>
       <c r="E38">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -1481,7 +1529,7 @@
       </c>
       <c r="C39" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>CO</v>
+        <v>CA</v>
       </c>
       <c r="E39">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -1504,7 +1552,7 @@
       </c>
       <c r="C40" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>CO</v>
+        <v>CA</v>
       </c>
       <c r="E40">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -1527,7 +1575,7 @@
       </c>
       <c r="C41" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>CO</v>
+        <v>CA</v>
       </c>
       <c r="E41">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -1550,7 +1598,7 @@
       </c>
       <c r="C42" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>CO</v>
+        <v>CA</v>
       </c>
       <c r="E42">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -1573,7 +1621,7 @@
       </c>
       <c r="C43" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>CO</v>
+        <v>CA</v>
       </c>
       <c r="E43">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -1596,7 +1644,7 @@
       </c>
       <c r="C44" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>CO</v>
+        <v>CA</v>
       </c>
       <c r="E44">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -1619,7 +1667,7 @@
       </c>
       <c r="C45" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>CO</v>
+        <v>CA</v>
       </c>
       <c r="E45">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -1642,7 +1690,7 @@
       </c>
       <c r="C46" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>CO</v>
+        <v>CA</v>
       </c>
       <c r="E46">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -1665,7 +1713,7 @@
       </c>
       <c r="C47" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>CO</v>
+        <v>CA</v>
       </c>
       <c r="E47">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -1688,7 +1736,7 @@
       </c>
       <c r="C48" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>CO</v>
+        <v>CA</v>
       </c>
       <c r="E48">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -1711,7 +1759,7 @@
       </c>
       <c r="C49" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>CO</v>
+        <v>CA</v>
       </c>
       <c r="E49">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -1734,7 +1782,7 @@
       </c>
       <c r="C50" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>CT</v>
+        <v>CO</v>
       </c>
       <c r="E50">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -1757,7 +1805,7 @@
       </c>
       <c r="C51" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>CT</v>
+        <v>CO</v>
       </c>
       <c r="E51">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -1780,7 +1828,7 @@
       </c>
       <c r="C52" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>CT</v>
+        <v>CO</v>
       </c>
       <c r="E52">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -1803,7 +1851,7 @@
       </c>
       <c r="C53" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>CT</v>
+        <v>CO</v>
       </c>
       <c r="E53">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -1826,7 +1874,7 @@
       </c>
       <c r="C54" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>CT</v>
+        <v>CO</v>
       </c>
       <c r="E54">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -1849,7 +1897,7 @@
       </c>
       <c r="C55" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>CT</v>
+        <v>CO</v>
       </c>
       <c r="E55">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -1872,7 +1920,7 @@
       </c>
       <c r="C56" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>CT</v>
+        <v>CO</v>
       </c>
       <c r="E56">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -1895,7 +1943,7 @@
       </c>
       <c r="C57" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>CT</v>
+        <v>CO</v>
       </c>
       <c r="E57">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -1918,7 +1966,7 @@
       </c>
       <c r="C58" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>CT</v>
+        <v>CO</v>
       </c>
       <c r="E58">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -1941,7 +1989,7 @@
       </c>
       <c r="C59" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>CT</v>
+        <v>CO</v>
       </c>
       <c r="E59">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -1964,7 +2012,7 @@
       </c>
       <c r="C60" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>CT</v>
+        <v>CO</v>
       </c>
       <c r="E60">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -1987,7 +2035,7 @@
       </c>
       <c r="C61" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>CT</v>
+        <v>CO</v>
       </c>
       <c r="E61">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -2010,7 +2058,7 @@
       </c>
       <c r="C62" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>DC</v>
+        <v>CT</v>
       </c>
       <c r="E62">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -2033,7 +2081,7 @@
       </c>
       <c r="C63" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>DC</v>
+        <v>CT</v>
       </c>
       <c r="E63">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -2056,7 +2104,7 @@
       </c>
       <c r="C64" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>DC</v>
+        <v>CT</v>
       </c>
       <c r="E64">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -2079,7 +2127,7 @@
       </c>
       <c r="C65" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>DC</v>
+        <v>CT</v>
       </c>
       <c r="E65">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -2102,7 +2150,7 @@
       </c>
       <c r="C66" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>DC</v>
+        <v>CT</v>
       </c>
       <c r="E66">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -2125,7 +2173,7 @@
       </c>
       <c r="C67" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>DC</v>
+        <v>CT</v>
       </c>
       <c r="E67">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -2148,7 +2196,7 @@
       </c>
       <c r="C68" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>DC</v>
+        <v>CT</v>
       </c>
       <c r="E68">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -2171,7 +2219,7 @@
       </c>
       <c r="C69" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>DC</v>
+        <v>CT</v>
       </c>
       <c r="E69">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -2194,7 +2242,7 @@
       </c>
       <c r="C70" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>DC</v>
+        <v>CT</v>
       </c>
       <c r="E70">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -2217,7 +2265,7 @@
       </c>
       <c r="C71" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>DC</v>
+        <v>CT</v>
       </c>
       <c r="E71">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -2240,7 +2288,7 @@
       </c>
       <c r="C72" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>DC</v>
+        <v>CT</v>
       </c>
       <c r="E72">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -2263,7 +2311,7 @@
       </c>
       <c r="C73" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>DC</v>
+        <v>CT</v>
       </c>
       <c r="E73">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -2286,7 +2334,7 @@
       </c>
       <c r="C74" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>FL</v>
+        <v>DC</v>
       </c>
       <c r="E74">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -2309,7 +2357,7 @@
       </c>
       <c r="C75" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>FL</v>
+        <v>DC</v>
       </c>
       <c r="E75">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -2332,7 +2380,7 @@
       </c>
       <c r="C76" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>FL</v>
+        <v>DC</v>
       </c>
       <c r="E76">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -2355,7 +2403,7 @@
       </c>
       <c r="C77" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>FL</v>
+        <v>DC</v>
       </c>
       <c r="E77">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -2378,7 +2426,7 @@
       </c>
       <c r="C78" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>FL</v>
+        <v>DC</v>
       </c>
       <c r="E78">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -2401,7 +2449,7 @@
       </c>
       <c r="C79" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>FL</v>
+        <v>DC</v>
       </c>
       <c r="E79">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -2424,7 +2472,7 @@
       </c>
       <c r="C80" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>FL</v>
+        <v>DC</v>
       </c>
       <c r="E80">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -2447,7 +2495,7 @@
       </c>
       <c r="C81" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>FL</v>
+        <v>DC</v>
       </c>
       <c r="E81">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -2470,7 +2518,7 @@
       </c>
       <c r="C82" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>FL</v>
+        <v>DC</v>
       </c>
       <c r="E82">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -2493,7 +2541,7 @@
       </c>
       <c r="C83" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>FL</v>
+        <v>DC</v>
       </c>
       <c r="E83">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -2516,7 +2564,7 @@
       </c>
       <c r="C84" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>FL</v>
+        <v>DC</v>
       </c>
       <c r="E84">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -2539,7 +2587,7 @@
       </c>
       <c r="C85" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>FL</v>
+        <v>DC</v>
       </c>
       <c r="E85">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -2562,7 +2610,7 @@
       </c>
       <c r="C86" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>GA</v>
+        <v>DE</v>
       </c>
       <c r="E86">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -2585,7 +2633,7 @@
       </c>
       <c r="C87" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>GA</v>
+        <v>DE</v>
       </c>
       <c r="E87">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -2608,7 +2656,7 @@
       </c>
       <c r="C88" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>GA</v>
+        <v>DE</v>
       </c>
       <c r="E88">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -2631,7 +2679,7 @@
       </c>
       <c r="C89" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>GA</v>
+        <v>DE</v>
       </c>
       <c r="E89">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -2654,7 +2702,7 @@
       </c>
       <c r="C90" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>GA</v>
+        <v>DE</v>
       </c>
       <c r="E90">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -2677,7 +2725,7 @@
       </c>
       <c r="C91" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>GA</v>
+        <v>DE</v>
       </c>
       <c r="E91">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -2700,7 +2748,7 @@
       </c>
       <c r="C92" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>GA</v>
+        <v>DE</v>
       </c>
       <c r="E92">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -2723,7 +2771,7 @@
       </c>
       <c r="C93" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>GA</v>
+        <v>DE</v>
       </c>
       <c r="E93">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -2746,7 +2794,7 @@
       </c>
       <c r="C94" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>GA</v>
+        <v>DE</v>
       </c>
       <c r="E94">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -2769,7 +2817,7 @@
       </c>
       <c r="C95" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>GA</v>
+        <v>DE</v>
       </c>
       <c r="E95">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -2792,7 +2840,7 @@
       </c>
       <c r="C96" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>GA</v>
+        <v>DE</v>
       </c>
       <c r="E96">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -2815,7 +2863,7 @@
       </c>
       <c r="C97" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>GA</v>
+        <v>DE</v>
       </c>
       <c r="E97">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -2838,7 +2886,7 @@
       </c>
       <c r="C98" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>HI</v>
+        <v>FL</v>
       </c>
       <c r="E98">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -2861,7 +2909,7 @@
       </c>
       <c r="C99" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>HI</v>
+        <v>FL</v>
       </c>
       <c r="E99">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -2884,7 +2932,7 @@
       </c>
       <c r="C100" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>HI</v>
+        <v>FL</v>
       </c>
       <c r="E100">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -2907,7 +2955,7 @@
       </c>
       <c r="C101" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>HI</v>
+        <v>FL</v>
       </c>
       <c r="E101">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -2930,7 +2978,7 @@
       </c>
       <c r="C102" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>HI</v>
+        <v>FL</v>
       </c>
       <c r="E102">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -2953,7 +3001,7 @@
       </c>
       <c r="C103" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>HI</v>
+        <v>FL</v>
       </c>
       <c r="E103">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -2976,7 +3024,7 @@
       </c>
       <c r="C104" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>HI</v>
+        <v>FL</v>
       </c>
       <c r="E104">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -2999,7 +3047,7 @@
       </c>
       <c r="C105" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>HI</v>
+        <v>FL</v>
       </c>
       <c r="E105">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -3022,7 +3070,7 @@
       </c>
       <c r="C106" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>HI</v>
+        <v>FL</v>
       </c>
       <c r="E106">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -3045,7 +3093,7 @@
       </c>
       <c r="C107" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>HI</v>
+        <v>FL</v>
       </c>
       <c r="E107">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -3068,7 +3116,7 @@
       </c>
       <c r="C108" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>HI</v>
+        <v>FL</v>
       </c>
       <c r="E108">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -3091,7 +3139,7 @@
       </c>
       <c r="C109" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>HI</v>
+        <v>FL</v>
       </c>
       <c r="E109">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -3114,7 +3162,7 @@
       </c>
       <c r="C110" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>ID</v>
+        <v>GA</v>
       </c>
       <c r="E110">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -3137,7 +3185,7 @@
       </c>
       <c r="C111" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>ID</v>
+        <v>GA</v>
       </c>
       <c r="E111">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -3160,7 +3208,7 @@
       </c>
       <c r="C112" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>ID</v>
+        <v>GA</v>
       </c>
       <c r="E112">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -3183,7 +3231,7 @@
       </c>
       <c r="C113" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>ID</v>
+        <v>GA</v>
       </c>
       <c r="E113">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -3206,7 +3254,7 @@
       </c>
       <c r="C114" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>ID</v>
+        <v>GA</v>
       </c>
       <c r="E114">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -3229,7 +3277,7 @@
       </c>
       <c r="C115" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>ID</v>
+        <v>GA</v>
       </c>
       <c r="E115">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -3252,7 +3300,7 @@
       </c>
       <c r="C116" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>ID</v>
+        <v>GA</v>
       </c>
       <c r="E116">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -3275,7 +3323,7 @@
       </c>
       <c r="C117" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>ID</v>
+        <v>GA</v>
       </c>
       <c r="E117">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -3298,7 +3346,7 @@
       </c>
       <c r="C118" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>ID</v>
+        <v>GA</v>
       </c>
       <c r="E118">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -3321,7 +3369,7 @@
       </c>
       <c r="C119" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>ID</v>
+        <v>GA</v>
       </c>
       <c r="E119">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -3344,7 +3392,7 @@
       </c>
       <c r="C120" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>ID</v>
+        <v>GA</v>
       </c>
       <c r="E120">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -3367,7 +3415,7 @@
       </c>
       <c r="C121" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>ID</v>
+        <v>GA</v>
       </c>
       <c r="E121">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -3390,7 +3438,7 @@
       </c>
       <c r="C122" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>IL</v>
+        <v>HI</v>
       </c>
       <c r="E122">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -3413,7 +3461,7 @@
       </c>
       <c r="C123" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>IL</v>
+        <v>HI</v>
       </c>
       <c r="E123">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -3436,7 +3484,7 @@
       </c>
       <c r="C124" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>IL</v>
+        <v>HI</v>
       </c>
       <c r="E124">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -3459,7 +3507,7 @@
       </c>
       <c r="C125" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>IL</v>
+        <v>HI</v>
       </c>
       <c r="E125">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -3482,7 +3530,7 @@
       </c>
       <c r="C126" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>IL</v>
+        <v>HI</v>
       </c>
       <c r="E126">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -3505,7 +3553,7 @@
       </c>
       <c r="C127" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>IL</v>
+        <v>HI</v>
       </c>
       <c r="E127">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -3528,7 +3576,7 @@
       </c>
       <c r="C128" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>IL</v>
+        <v>HI</v>
       </c>
       <c r="E128">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -3551,7 +3599,7 @@
       </c>
       <c r="C129" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>IL</v>
+        <v>HI</v>
       </c>
       <c r="E129">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -3574,7 +3622,7 @@
       </c>
       <c r="C130" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>IL</v>
+        <v>HI</v>
       </c>
       <c r="E130">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -3597,7 +3645,7 @@
       </c>
       <c r="C131" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>IL</v>
+        <v>HI</v>
       </c>
       <c r="E131">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -3620,7 +3668,7 @@
       </c>
       <c r="C132" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>IL</v>
+        <v>HI</v>
       </c>
       <c r="E132">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -3643,7 +3691,7 @@
       </c>
       <c r="C133" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>IL</v>
+        <v>HI</v>
       </c>
       <c r="E133">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -3666,7 +3714,7 @@
       </c>
       <c r="C134" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>IN</v>
+        <v>IA</v>
       </c>
       <c r="E134">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -3689,7 +3737,7 @@
       </c>
       <c r="C135" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>IN</v>
+        <v>IA</v>
       </c>
       <c r="E135">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -3712,7 +3760,7 @@
       </c>
       <c r="C136" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>IN</v>
+        <v>IA</v>
       </c>
       <c r="E136">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -3735,7 +3783,7 @@
       </c>
       <c r="C137" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>IN</v>
+        <v>IA</v>
       </c>
       <c r="E137">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -3758,7 +3806,7 @@
       </c>
       <c r="C138" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>IN</v>
+        <v>IA</v>
       </c>
       <c r="E138">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -3781,7 +3829,7 @@
       </c>
       <c r="C139" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>IN</v>
+        <v>IA</v>
       </c>
       <c r="E139">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -3804,7 +3852,7 @@
       </c>
       <c r="C140" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>IN</v>
+        <v>IA</v>
       </c>
       <c r="E140">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -3827,7 +3875,7 @@
       </c>
       <c r="C141" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>IN</v>
+        <v>IA</v>
       </c>
       <c r="E141">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -3850,7 +3898,7 @@
       </c>
       <c r="C142" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>IN</v>
+        <v>IA</v>
       </c>
       <c r="E142">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -3873,7 +3921,7 @@
       </c>
       <c r="C143" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>IN</v>
+        <v>IA</v>
       </c>
       <c r="E143">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -3896,7 +3944,7 @@
       </c>
       <c r="C144" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>IN</v>
+        <v>IA</v>
       </c>
       <c r="E144">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -3919,7 +3967,7 @@
       </c>
       <c r="C145" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>IN</v>
+        <v>IA</v>
       </c>
       <c r="E145">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -3942,7 +3990,7 @@
       </c>
       <c r="C146" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>KS</v>
+        <v>ID</v>
       </c>
       <c r="E146">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -3965,7 +4013,7 @@
       </c>
       <c r="C147" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>KS</v>
+        <v>ID</v>
       </c>
       <c r="E147">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -3988,7 +4036,7 @@
       </c>
       <c r="C148" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>KS</v>
+        <v>ID</v>
       </c>
       <c r="E148">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -4011,7 +4059,7 @@
       </c>
       <c r="C149" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>KS</v>
+        <v>ID</v>
       </c>
       <c r="E149">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -4034,7 +4082,7 @@
       </c>
       <c r="C150" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>KS</v>
+        <v>ID</v>
       </c>
       <c r="E150">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -4057,7 +4105,7 @@
       </c>
       <c r="C151" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>KS</v>
+        <v>ID</v>
       </c>
       <c r="E151">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -4080,7 +4128,7 @@
       </c>
       <c r="C152" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>KS</v>
+        <v>ID</v>
       </c>
       <c r="E152">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -4103,7 +4151,7 @@
       </c>
       <c r="C153" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>KS</v>
+        <v>ID</v>
       </c>
       <c r="E153">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -4126,7 +4174,7 @@
       </c>
       <c r="C154" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>KS</v>
+        <v>ID</v>
       </c>
       <c r="E154">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -4149,7 +4197,7 @@
       </c>
       <c r="C155" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>KS</v>
+        <v>ID</v>
       </c>
       <c r="E155">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -4172,7 +4220,7 @@
       </c>
       <c r="C156" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>KS</v>
+        <v>ID</v>
       </c>
       <c r="E156">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -4195,7 +4243,7 @@
       </c>
       <c r="C157" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>KS</v>
+        <v>ID</v>
       </c>
       <c r="E157">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -4218,7 +4266,7 @@
       </c>
       <c r="C158" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>KY</v>
+        <v>IL</v>
       </c>
       <c r="E158">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -4241,7 +4289,7 @@
       </c>
       <c r="C159" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>KY</v>
+        <v>IL</v>
       </c>
       <c r="E159">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -4264,7 +4312,7 @@
       </c>
       <c r="C160" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>KY</v>
+        <v>IL</v>
       </c>
       <c r="E160">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -4287,7 +4335,7 @@
       </c>
       <c r="C161" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>KY</v>
+        <v>IL</v>
       </c>
       <c r="E161">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -4310,7 +4358,7 @@
       </c>
       <c r="C162" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>KY</v>
+        <v>IL</v>
       </c>
       <c r="E162">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -4333,7 +4381,7 @@
       </c>
       <c r="C163" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>KY</v>
+        <v>IL</v>
       </c>
       <c r="E163">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -4356,7 +4404,7 @@
       </c>
       <c r="C164" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>KY</v>
+        <v>IL</v>
       </c>
       <c r="E164">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -4379,7 +4427,7 @@
       </c>
       <c r="C165" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>KY</v>
+        <v>IL</v>
       </c>
       <c r="E165">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -4402,7 +4450,7 @@
       </c>
       <c r="C166" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>KY</v>
+        <v>IL</v>
       </c>
       <c r="E166">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -4425,7 +4473,7 @@
       </c>
       <c r="C167" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>KY</v>
+        <v>IL</v>
       </c>
       <c r="E167">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -4448,7 +4496,7 @@
       </c>
       <c r="C168" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>KY</v>
+        <v>IL</v>
       </c>
       <c r="E168">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -4471,7 +4519,7 @@
       </c>
       <c r="C169" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>KY</v>
+        <v>IL</v>
       </c>
       <c r="E169">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -4494,7 +4542,7 @@
       </c>
       <c r="C170" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>LA</v>
+        <v>IN</v>
       </c>
       <c r="E170">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -4517,7 +4565,7 @@
       </c>
       <c r="C171" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>LA</v>
+        <v>IN</v>
       </c>
       <c r="E171">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -4540,7 +4588,7 @@
       </c>
       <c r="C172" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>LA</v>
+        <v>IN</v>
       </c>
       <c r="E172">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -4563,7 +4611,7 @@
       </c>
       <c r="C173" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>LA</v>
+        <v>IN</v>
       </c>
       <c r="E173">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -4586,7 +4634,7 @@
       </c>
       <c r="C174" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>LA</v>
+        <v>IN</v>
       </c>
       <c r="E174">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -4609,7 +4657,7 @@
       </c>
       <c r="C175" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>LA</v>
+        <v>IN</v>
       </c>
       <c r="E175">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -4632,7 +4680,7 @@
       </c>
       <c r="C176" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>LA</v>
+        <v>IN</v>
       </c>
       <c r="E176">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -4655,7 +4703,7 @@
       </c>
       <c r="C177" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>LA</v>
+        <v>IN</v>
       </c>
       <c r="E177">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -4678,7 +4726,7 @@
       </c>
       <c r="C178" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>LA</v>
+        <v>IN</v>
       </c>
       <c r="E178">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -4701,7 +4749,7 @@
       </c>
       <c r="C179" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>LA</v>
+        <v>IN</v>
       </c>
       <c r="E179">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -4724,7 +4772,7 @@
       </c>
       <c r="C180" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>LA</v>
+        <v>IN</v>
       </c>
       <c r="E180">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -4747,7 +4795,7 @@
       </c>
       <c r="C181" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>LA</v>
+        <v>IN</v>
       </c>
       <c r="E181">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -4770,7 +4818,7 @@
       </c>
       <c r="C182" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>ME</v>
+        <v>KS</v>
       </c>
       <c r="E182">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -4793,7 +4841,7 @@
       </c>
       <c r="C183" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>ME</v>
+        <v>KS</v>
       </c>
       <c r="E183">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -4816,7 +4864,7 @@
       </c>
       <c r="C184" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>ME</v>
+        <v>KS</v>
       </c>
       <c r="E184">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -4839,7 +4887,7 @@
       </c>
       <c r="C185" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>ME</v>
+        <v>KS</v>
       </c>
       <c r="E185">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -4862,7 +4910,7 @@
       </c>
       <c r="C186" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>ME</v>
+        <v>KS</v>
       </c>
       <c r="E186">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -4885,7 +4933,7 @@
       </c>
       <c r="C187" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>ME</v>
+        <v>KS</v>
       </c>
       <c r="E187">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -4908,7 +4956,7 @@
       </c>
       <c r="C188" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>ME</v>
+        <v>KS</v>
       </c>
       <c r="E188">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -4931,7 +4979,7 @@
       </c>
       <c r="C189" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>ME</v>
+        <v>KS</v>
       </c>
       <c r="E189">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -4954,7 +5002,7 @@
       </c>
       <c r="C190" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>ME</v>
+        <v>KS</v>
       </c>
       <c r="E190">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -4977,7 +5025,7 @@
       </c>
       <c r="C191" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>ME</v>
+        <v>KS</v>
       </c>
       <c r="E191">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -5000,7 +5048,7 @@
       </c>
       <c r="C192" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>ME</v>
+        <v>KS</v>
       </c>
       <c r="E192">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -5023,7 +5071,7 @@
       </c>
       <c r="C193" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>ME</v>
+        <v>KS</v>
       </c>
       <c r="E193">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -5046,7 +5094,7 @@
       </c>
       <c r="C194" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>MD</v>
+        <v>LA</v>
       </c>
       <c r="E194">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -5069,7 +5117,7 @@
       </c>
       <c r="C195" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>MD</v>
+        <v>LA</v>
       </c>
       <c r="E195">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -5092,7 +5140,7 @@
       </c>
       <c r="C196" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>MD</v>
+        <v>LA</v>
       </c>
       <c r="E196">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -5115,7 +5163,7 @@
       </c>
       <c r="C197" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>MD</v>
+        <v>LA</v>
       </c>
       <c r="E197">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -5138,7 +5186,7 @@
       </c>
       <c r="C198" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>MD</v>
+        <v>LA</v>
       </c>
       <c r="E198">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -5161,7 +5209,7 @@
       </c>
       <c r="C199" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>MD</v>
+        <v>LA</v>
       </c>
       <c r="E199">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -5184,7 +5232,7 @@
       </c>
       <c r="C200" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>MD</v>
+        <v>LA</v>
       </c>
       <c r="E200">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -5207,7 +5255,7 @@
       </c>
       <c r="C201" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>MD</v>
+        <v>LA</v>
       </c>
       <c r="E201">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -5230,7 +5278,7 @@
       </c>
       <c r="C202" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>MD</v>
+        <v>LA</v>
       </c>
       <c r="E202">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -5253,7 +5301,7 @@
       </c>
       <c r="C203" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>MD</v>
+        <v>LA</v>
       </c>
       <c r="E203">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -5276,7 +5324,7 @@
       </c>
       <c r="C204" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>MD</v>
+        <v>LA</v>
       </c>
       <c r="E204">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -5299,7 +5347,7 @@
       </c>
       <c r="C205" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>MD</v>
+        <v>LA</v>
       </c>
       <c r="E205">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -5322,7 +5370,7 @@
       </c>
       <c r="C206" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>MI</v>
+        <v>MA</v>
       </c>
       <c r="E206">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -5345,7 +5393,7 @@
       </c>
       <c r="C207" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>MI</v>
+        <v>MA</v>
       </c>
       <c r="E207">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -5368,7 +5416,7 @@
       </c>
       <c r="C208" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>MI</v>
+        <v>MA</v>
       </c>
       <c r="E208">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -5391,7 +5439,7 @@
       </c>
       <c r="C209" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>MI</v>
+        <v>MA</v>
       </c>
       <c r="E209">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -5414,7 +5462,7 @@
       </c>
       <c r="C210" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>MI</v>
+        <v>MA</v>
       </c>
       <c r="E210">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -5437,7 +5485,7 @@
       </c>
       <c r="C211" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>MI</v>
+        <v>MA</v>
       </c>
       <c r="E211">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -5460,7 +5508,7 @@
       </c>
       <c r="C212" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>MI</v>
+        <v>MA</v>
       </c>
       <c r="E212">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -5483,7 +5531,7 @@
       </c>
       <c r="C213" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>MI</v>
+        <v>MA</v>
       </c>
       <c r="E213">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -5506,7 +5554,7 @@
       </c>
       <c r="C214" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>MI</v>
+        <v>MA</v>
       </c>
       <c r="E214">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -5529,7 +5577,7 @@
       </c>
       <c r="C215" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>MI</v>
+        <v>MA</v>
       </c>
       <c r="E215">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -5552,7 +5600,7 @@
       </c>
       <c r="C216" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>MI</v>
+        <v>MA</v>
       </c>
       <c r="E216">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -5575,7 +5623,7 @@
       </c>
       <c r="C217" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>MI</v>
+        <v>MA</v>
       </c>
       <c r="E217">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -5598,7 +5646,7 @@
       </c>
       <c r="C218" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>MN</v>
+        <v>MD</v>
       </c>
       <c r="E218">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -5621,7 +5669,7 @@
       </c>
       <c r="C219" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>MN</v>
+        <v>MD</v>
       </c>
       <c r="E219">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -5644,7 +5692,7 @@
       </c>
       <c r="C220" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>MN</v>
+        <v>MD</v>
       </c>
       <c r="E220">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -5667,7 +5715,7 @@
       </c>
       <c r="C221" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>MN</v>
+        <v>MD</v>
       </c>
       <c r="E221">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -5690,7 +5738,7 @@
       </c>
       <c r="C222" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>MN</v>
+        <v>MD</v>
       </c>
       <c r="E222">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -5713,7 +5761,7 @@
       </c>
       <c r="C223" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>MN</v>
+        <v>MD</v>
       </c>
       <c r="E223">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -5736,7 +5784,7 @@
       </c>
       <c r="C224" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>MN</v>
+        <v>MD</v>
       </c>
       <c r="E224">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -5759,7 +5807,7 @@
       </c>
       <c r="C225" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>MN</v>
+        <v>MD</v>
       </c>
       <c r="E225">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -5782,7 +5830,7 @@
       </c>
       <c r="C226" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>MN</v>
+        <v>MD</v>
       </c>
       <c r="E226">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -5805,7 +5853,7 @@
       </c>
       <c r="C227" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>MN</v>
+        <v>MD</v>
       </c>
       <c r="E227">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -5828,7 +5876,7 @@
       </c>
       <c r="C228" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>MN</v>
+        <v>MD</v>
       </c>
       <c r="E228">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -5851,7 +5899,7 @@
       </c>
       <c r="C229" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>MN</v>
+        <v>MD</v>
       </c>
       <c r="E229">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -5874,7 +5922,7 @@
       </c>
       <c r="C230" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>MO</v>
+        <v>ME</v>
       </c>
       <c r="E230">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -5897,7 +5945,7 @@
       </c>
       <c r="C231" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>MO</v>
+        <v>ME</v>
       </c>
       <c r="E231">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -5920,7 +5968,7 @@
       </c>
       <c r="C232" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>MO</v>
+        <v>ME</v>
       </c>
       <c r="E232">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -5943,7 +5991,7 @@
       </c>
       <c r="C233" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>MO</v>
+        <v>ME</v>
       </c>
       <c r="E233">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -5966,7 +6014,7 @@
       </c>
       <c r="C234" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>MO</v>
+        <v>ME</v>
       </c>
       <c r="E234">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -5989,7 +6037,7 @@
       </c>
       <c r="C235" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>MO</v>
+        <v>ME</v>
       </c>
       <c r="E235">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -6012,7 +6060,7 @@
       </c>
       <c r="C236" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>MO</v>
+        <v>ME</v>
       </c>
       <c r="E236">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -6035,7 +6083,7 @@
       </c>
       <c r="C237" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>MO</v>
+        <v>ME</v>
       </c>
       <c r="E237">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -6058,7 +6106,7 @@
       </c>
       <c r="C238" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>MO</v>
+        <v>ME</v>
       </c>
       <c r="E238">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -6081,7 +6129,7 @@
       </c>
       <c r="C239" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>MO</v>
+        <v>ME</v>
       </c>
       <c r="E239">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -6104,7 +6152,7 @@
       </c>
       <c r="C240" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>MO</v>
+        <v>ME</v>
       </c>
       <c r="E240">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -6127,7 +6175,7 @@
       </c>
       <c r="C241" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>MO</v>
+        <v>ME</v>
       </c>
       <c r="E241">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -6150,7 +6198,7 @@
       </c>
       <c r="C242" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>MT</v>
+        <v>MI</v>
       </c>
       <c r="E242">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -6173,7 +6221,7 @@
       </c>
       <c r="C243" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>MT</v>
+        <v>MI</v>
       </c>
       <c r="E243">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -6196,7 +6244,7 @@
       </c>
       <c r="C244" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>MT</v>
+        <v>MI</v>
       </c>
       <c r="E244">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -6219,7 +6267,7 @@
       </c>
       <c r="C245" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>MT</v>
+        <v>MI</v>
       </c>
       <c r="E245">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -6242,7 +6290,7 @@
       </c>
       <c r="C246" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>MT</v>
+        <v>MI</v>
       </c>
       <c r="E246">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -6265,7 +6313,7 @@
       </c>
       <c r="C247" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>MT</v>
+        <v>MI</v>
       </c>
       <c r="E247">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -6288,7 +6336,7 @@
       </c>
       <c r="C248" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>MT</v>
+        <v>MI</v>
       </c>
       <c r="E248">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -6311,7 +6359,7 @@
       </c>
       <c r="C249" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>MT</v>
+        <v>MI</v>
       </c>
       <c r="E249">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -6334,7 +6382,7 @@
       </c>
       <c r="C250" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>MT</v>
+        <v>MI</v>
       </c>
       <c r="E250">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -6357,7 +6405,7 @@
       </c>
       <c r="C251" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>MT</v>
+        <v>MI</v>
       </c>
       <c r="E251">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -6380,7 +6428,7 @@
       </c>
       <c r="C252" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>MT</v>
+        <v>MI</v>
       </c>
       <c r="E252">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -6403,7 +6451,7 @@
       </c>
       <c r="C253" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>MT</v>
+        <v>MI</v>
       </c>
       <c r="E253">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -6426,7 +6474,7 @@
       </c>
       <c r="C254" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>NE</v>
+        <v>MN</v>
       </c>
       <c r="E254">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -6449,7 +6497,7 @@
       </c>
       <c r="C255" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>NE</v>
+        <v>MN</v>
       </c>
       <c r="E255">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -6472,7 +6520,7 @@
       </c>
       <c r="C256" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>NE</v>
+        <v>MN</v>
       </c>
       <c r="E256">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -6495,7 +6543,7 @@
       </c>
       <c r="C257" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>NE</v>
+        <v>MN</v>
       </c>
       <c r="E257">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -6518,7 +6566,7 @@
       </c>
       <c r="C258" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>NE</v>
+        <v>MN</v>
       </c>
       <c r="E258">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -6541,7 +6589,7 @@
       </c>
       <c r="C259" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>NE</v>
+        <v>MN</v>
       </c>
       <c r="E259">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -6564,7 +6612,7 @@
       </c>
       <c r="C260" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>NE</v>
+        <v>MN</v>
       </c>
       <c r="E260">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -6587,7 +6635,7 @@
       </c>
       <c r="C261" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>NE</v>
+        <v>MN</v>
       </c>
       <c r="E261">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -6610,7 +6658,7 @@
       </c>
       <c r="C262" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>NE</v>
+        <v>MN</v>
       </c>
       <c r="E262">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -6633,7 +6681,7 @@
       </c>
       <c r="C263" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>NE</v>
+        <v>MN</v>
       </c>
       <c r="E263">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -6656,7 +6704,7 @@
       </c>
       <c r="C264" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>NE</v>
+        <v>MN</v>
       </c>
       <c r="E264">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -6679,7 +6727,7 @@
       </c>
       <c r="C265" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>NE</v>
+        <v>MN</v>
       </c>
       <c r="E265">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -6702,7 +6750,7 @@
       </c>
       <c r="C266" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>NV</v>
+        <v>MO</v>
       </c>
       <c r="E266">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -6725,7 +6773,7 @@
       </c>
       <c r="C267" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>NV</v>
+        <v>MO</v>
       </c>
       <c r="E267">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -6748,7 +6796,7 @@
       </c>
       <c r="C268" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>NV</v>
+        <v>MO</v>
       </c>
       <c r="E268">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -6771,7 +6819,7 @@
       </c>
       <c r="C269" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>NV</v>
+        <v>MO</v>
       </c>
       <c r="E269">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -6794,7 +6842,7 @@
       </c>
       <c r="C270" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>NV</v>
+        <v>MO</v>
       </c>
       <c r="E270">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -6817,7 +6865,7 @@
       </c>
       <c r="C271" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>NV</v>
+        <v>MO</v>
       </c>
       <c r="E271">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -6840,7 +6888,7 @@
       </c>
       <c r="C272" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>NV</v>
+        <v>MO</v>
       </c>
       <c r="E272">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -6863,7 +6911,7 @@
       </c>
       <c r="C273" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>NV</v>
+        <v>MO</v>
       </c>
       <c r="E273">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -6886,7 +6934,7 @@
       </c>
       <c r="C274" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>NV</v>
+        <v>MO</v>
       </c>
       <c r="E274">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -6909,7 +6957,7 @@
       </c>
       <c r="C275" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>NV</v>
+        <v>MO</v>
       </c>
       <c r="E275">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -6932,7 +6980,7 @@
       </c>
       <c r="C276" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>NV</v>
+        <v>MO</v>
       </c>
       <c r="E276">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -6955,7 +7003,7 @@
       </c>
       <c r="C277" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>NV</v>
+        <v>MO</v>
       </c>
       <c r="E277">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -6978,7 +7026,7 @@
       </c>
       <c r="C278" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>NJ</v>
+        <v>MT</v>
       </c>
       <c r="E278">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -7001,7 +7049,7 @@
       </c>
       <c r="C279" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>NJ</v>
+        <v>MT</v>
       </c>
       <c r="E279">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -7024,7 +7072,7 @@
       </c>
       <c r="C280" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>NJ</v>
+        <v>MT</v>
       </c>
       <c r="E280">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -7047,7 +7095,7 @@
       </c>
       <c r="C281" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>NJ</v>
+        <v>MT</v>
       </c>
       <c r="E281">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -7070,7 +7118,7 @@
       </c>
       <c r="C282" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>NJ</v>
+        <v>MT</v>
       </c>
       <c r="E282">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -7093,7 +7141,7 @@
       </c>
       <c r="C283" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>NJ</v>
+        <v>MT</v>
       </c>
       <c r="E283">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -7116,7 +7164,7 @@
       </c>
       <c r="C284" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>NJ</v>
+        <v>MT</v>
       </c>
       <c r="E284">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -7139,7 +7187,7 @@
       </c>
       <c r="C285" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>NJ</v>
+        <v>MT</v>
       </c>
       <c r="E285">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -7162,7 +7210,7 @@
       </c>
       <c r="C286" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>NJ</v>
+        <v>MT</v>
       </c>
       <c r="E286">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -7185,7 +7233,7 @@
       </c>
       <c r="C287" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>NJ</v>
+        <v>MT</v>
       </c>
       <c r="E287">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -7208,7 +7256,7 @@
       </c>
       <c r="C288" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>NJ</v>
+        <v>MT</v>
       </c>
       <c r="E288">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -7231,7 +7279,7 @@
       </c>
       <c r="C289" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>NJ</v>
+        <v>MT</v>
       </c>
       <c r="E289">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -7254,7 +7302,7 @@
       </c>
       <c r="C290" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>NM</v>
+        <v>NC</v>
       </c>
       <c r="E290">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -7277,7 +7325,7 @@
       </c>
       <c r="C291" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>NM</v>
+        <v>NC</v>
       </c>
       <c r="E291">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -7300,7 +7348,7 @@
       </c>
       <c r="C292" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>NM</v>
+        <v>NC</v>
       </c>
       <c r="E292">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -7323,7 +7371,7 @@
       </c>
       <c r="C293" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>NM</v>
+        <v>NC</v>
       </c>
       <c r="E293">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -7346,7 +7394,7 @@
       </c>
       <c r="C294" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>NM</v>
+        <v>NC</v>
       </c>
       <c r="E294">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -7369,7 +7417,7 @@
       </c>
       <c r="C295" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>NM</v>
+        <v>NC</v>
       </c>
       <c r="E295">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -7392,7 +7440,7 @@
       </c>
       <c r="C296" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>NM</v>
+        <v>NC</v>
       </c>
       <c r="E296">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -7415,7 +7463,7 @@
       </c>
       <c r="C297" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>NM</v>
+        <v>NC</v>
       </c>
       <c r="E297">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -7438,7 +7486,7 @@
       </c>
       <c r="C298" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>NM</v>
+        <v>NC</v>
       </c>
       <c r="E298">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -7461,7 +7509,7 @@
       </c>
       <c r="C299" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>NM</v>
+        <v>NC</v>
       </c>
       <c r="E299">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -7484,7 +7532,7 @@
       </c>
       <c r="C300" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>NM</v>
+        <v>NC</v>
       </c>
       <c r="E300">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -7507,7 +7555,7 @@
       </c>
       <c r="C301" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>NM</v>
+        <v>NC</v>
       </c>
       <c r="E301">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -7530,7 +7578,7 @@
       </c>
       <c r="C302" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>NY</v>
+        <v>NE</v>
       </c>
       <c r="E302">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -7553,7 +7601,7 @@
       </c>
       <c r="C303" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>NY</v>
+        <v>NE</v>
       </c>
       <c r="E303">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -7576,7 +7624,7 @@
       </c>
       <c r="C304" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>NY</v>
+        <v>NE</v>
       </c>
       <c r="E304">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -7599,7 +7647,7 @@
       </c>
       <c r="C305" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>NY</v>
+        <v>NE</v>
       </c>
       <c r="E305">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -7622,7 +7670,7 @@
       </c>
       <c r="C306" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>NY</v>
+        <v>NE</v>
       </c>
       <c r="E306">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -7645,7 +7693,7 @@
       </c>
       <c r="C307" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>NY</v>
+        <v>NE</v>
       </c>
       <c r="E307">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -7668,7 +7716,7 @@
       </c>
       <c r="C308" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>NY</v>
+        <v>NE</v>
       </c>
       <c r="E308">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -7691,7 +7739,7 @@
       </c>
       <c r="C309" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>NY</v>
+        <v>NE</v>
       </c>
       <c r="E309">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -7714,7 +7762,7 @@
       </c>
       <c r="C310" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>NY</v>
+        <v>NE</v>
       </c>
       <c r="E310">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -7737,7 +7785,7 @@
       </c>
       <c r="C311" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>NY</v>
+        <v>NE</v>
       </c>
       <c r="E311">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -7760,7 +7808,7 @@
       </c>
       <c r="C312" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>NY</v>
+        <v>NE</v>
       </c>
       <c r="E312">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -7783,7 +7831,7 @@
       </c>
       <c r="C313" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>NY</v>
+        <v>NE</v>
       </c>
       <c r="E313">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -7806,7 +7854,7 @@
       </c>
       <c r="C314" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>NC</v>
+        <v>NH</v>
       </c>
       <c r="E314">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -7829,7 +7877,7 @@
       </c>
       <c r="C315" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>NC</v>
+        <v>NH</v>
       </c>
       <c r="E315">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -7852,7 +7900,7 @@
       </c>
       <c r="C316" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>NC</v>
+        <v>NH</v>
       </c>
       <c r="E316">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -7875,7 +7923,7 @@
       </c>
       <c r="C317" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>NC</v>
+        <v>NH</v>
       </c>
       <c r="E317">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -7898,7 +7946,7 @@
       </c>
       <c r="C318" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>NC</v>
+        <v>NH</v>
       </c>
       <c r="E318">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -7921,7 +7969,7 @@
       </c>
       <c r="C319" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>NC</v>
+        <v>NH</v>
       </c>
       <c r="E319">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -7944,7 +7992,7 @@
       </c>
       <c r="C320" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>NC</v>
+        <v>NH</v>
       </c>
       <c r="E320">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -7967,7 +8015,7 @@
       </c>
       <c r="C321" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>NC</v>
+        <v>NH</v>
       </c>
       <c r="E321">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -7990,7 +8038,7 @@
       </c>
       <c r="C322" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>NC</v>
+        <v>NH</v>
       </c>
       <c r="E322">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -8013,7 +8061,7 @@
       </c>
       <c r="C323" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>NC</v>
+        <v>NH</v>
       </c>
       <c r="E323">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -8036,7 +8084,7 @@
       </c>
       <c r="C324" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>NC</v>
+        <v>NH</v>
       </c>
       <c r="E324">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -8059,7 +8107,7 @@
       </c>
       <c r="C325" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>NC</v>
+        <v>NH</v>
       </c>
       <c r="E325">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -8082,7 +8130,7 @@
       </c>
       <c r="C326" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>OH</v>
+        <v>NJ</v>
       </c>
       <c r="E326">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -8105,7 +8153,7 @@
       </c>
       <c r="C327" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>OH</v>
+        <v>NJ</v>
       </c>
       <c r="E327">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -8128,7 +8176,7 @@
       </c>
       <c r="C328" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>OH</v>
+        <v>NJ</v>
       </c>
       <c r="E328">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -8151,7 +8199,7 @@
       </c>
       <c r="C329" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>OH</v>
+        <v>NJ</v>
       </c>
       <c r="E329">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -8174,7 +8222,7 @@
       </c>
       <c r="C330" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>OH</v>
+        <v>NJ</v>
       </c>
       <c r="E330">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -8197,7 +8245,7 @@
       </c>
       <c r="C331" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>OH</v>
+        <v>NJ</v>
       </c>
       <c r="E331">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -8220,7 +8268,7 @@
       </c>
       <c r="C332" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>OH</v>
+        <v>NJ</v>
       </c>
       <c r="E332">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -8243,7 +8291,7 @@
       </c>
       <c r="C333" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>OH</v>
+        <v>NJ</v>
       </c>
       <c r="E333">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -8266,7 +8314,7 @@
       </c>
       <c r="C334" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>OH</v>
+        <v>NJ</v>
       </c>
       <c r="E334">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -8289,7 +8337,7 @@
       </c>
       <c r="C335" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>OH</v>
+        <v>NJ</v>
       </c>
       <c r="E335">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -8312,7 +8360,7 @@
       </c>
       <c r="C336" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>OH</v>
+        <v>NJ</v>
       </c>
       <c r="E336">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -8335,7 +8383,7 @@
       </c>
       <c r="C337" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>OH</v>
+        <v>NJ</v>
       </c>
       <c r="E337">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -8358,7 +8406,7 @@
       </c>
       <c r="C338" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>OR</v>
+        <v>NM</v>
       </c>
       <c r="E338">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -8381,7 +8429,7 @@
       </c>
       <c r="C339" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>OR</v>
+        <v>NM</v>
       </c>
       <c r="E339">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -8404,7 +8452,7 @@
       </c>
       <c r="C340" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>OR</v>
+        <v>NM</v>
       </c>
       <c r="E340">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -8427,7 +8475,7 @@
       </c>
       <c r="C341" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>OR</v>
+        <v>NM</v>
       </c>
       <c r="E341">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -8450,7 +8498,7 @@
       </c>
       <c r="C342" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>OR</v>
+        <v>NM</v>
       </c>
       <c r="E342">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -8473,7 +8521,7 @@
       </c>
       <c r="C343" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>OR</v>
+        <v>NM</v>
       </c>
       <c r="E343">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -8496,7 +8544,7 @@
       </c>
       <c r="C344" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>OR</v>
+        <v>NM</v>
       </c>
       <c r="E344">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -8519,7 +8567,7 @@
       </c>
       <c r="C345" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>OR</v>
+        <v>NM</v>
       </c>
       <c r="E345">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -8542,7 +8590,7 @@
       </c>
       <c r="C346" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>OR</v>
+        <v>NM</v>
       </c>
       <c r="E346">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -8565,7 +8613,7 @@
       </c>
       <c r="C347" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>OR</v>
+        <v>NM</v>
       </c>
       <c r="E347">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -8588,7 +8636,7 @@
       </c>
       <c r="C348" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>OR</v>
+        <v>NM</v>
       </c>
       <c r="E348">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -8611,7 +8659,7 @@
       </c>
       <c r="C349" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>OR</v>
+        <v>NM</v>
       </c>
       <c r="E349">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -8634,7 +8682,7 @@
       </c>
       <c r="C350" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>SC</v>
+        <v>NV</v>
       </c>
       <c r="E350">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -8657,7 +8705,7 @@
       </c>
       <c r="C351" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>SC</v>
+        <v>NV</v>
       </c>
       <c r="E351">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -8680,7 +8728,7 @@
       </c>
       <c r="C352" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>SC</v>
+        <v>NV</v>
       </c>
       <c r="E352">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -8703,7 +8751,7 @@
       </c>
       <c r="C353" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>SC</v>
+        <v>NV</v>
       </c>
       <c r="E353">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -8726,7 +8774,7 @@
       </c>
       <c r="C354" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>SC</v>
+        <v>NV</v>
       </c>
       <c r="E354">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -8749,7 +8797,7 @@
       </c>
       <c r="C355" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>SC</v>
+        <v>NV</v>
       </c>
       <c r="E355">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -8772,7 +8820,7 @@
       </c>
       <c r="C356" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>SC</v>
+        <v>NV</v>
       </c>
       <c r="E356">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -8795,7 +8843,7 @@
       </c>
       <c r="C357" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>SC</v>
+        <v>NV</v>
       </c>
       <c r="E357">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -8818,7 +8866,7 @@
       </c>
       <c r="C358" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>SC</v>
+        <v>NV</v>
       </c>
       <c r="E358">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -8841,7 +8889,7 @@
       </c>
       <c r="C359" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>SC</v>
+        <v>NV</v>
       </c>
       <c r="E359">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -8864,7 +8912,7 @@
       </c>
       <c r="C360" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>SC</v>
+        <v>NV</v>
       </c>
       <c r="E360">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -8887,7 +8935,7 @@
       </c>
       <c r="C361" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>SC</v>
+        <v>NV</v>
       </c>
       <c r="E361">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -8910,7 +8958,7 @@
       </c>
       <c r="C362" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>TN</v>
+        <v>NY</v>
       </c>
       <c r="E362">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -8933,7 +8981,7 @@
       </c>
       <c r="C363" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>TN</v>
+        <v>NY</v>
       </c>
       <c r="E363">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -8956,7 +9004,7 @@
       </c>
       <c r="C364" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>TN</v>
+        <v>NY</v>
       </c>
       <c r="E364">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -8979,7 +9027,7 @@
       </c>
       <c r="C365" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>TN</v>
+        <v>NY</v>
       </c>
       <c r="E365">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -9002,7 +9050,7 @@
       </c>
       <c r="C366" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>TN</v>
+        <v>NY</v>
       </c>
       <c r="E366">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -9025,7 +9073,7 @@
       </c>
       <c r="C367" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>TN</v>
+        <v>NY</v>
       </c>
       <c r="E367">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -9048,7 +9096,7 @@
       </c>
       <c r="C368" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>TN</v>
+        <v>NY</v>
       </c>
       <c r="E368">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -9071,7 +9119,7 @@
       </c>
       <c r="C369" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>TN</v>
+        <v>NY</v>
       </c>
       <c r="E369">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -9094,7 +9142,7 @@
       </c>
       <c r="C370" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>TN</v>
+        <v>NY</v>
       </c>
       <c r="E370">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -9117,7 +9165,7 @@
       </c>
       <c r="C371" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>TN</v>
+        <v>NY</v>
       </c>
       <c r="E371">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -9140,7 +9188,7 @@
       </c>
       <c r="C372" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>TN</v>
+        <v>NY</v>
       </c>
       <c r="E372">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -9163,7 +9211,7 @@
       </c>
       <c r="C373" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>TN</v>
+        <v>NY</v>
       </c>
       <c r="E373">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -9186,7 +9234,7 @@
       </c>
       <c r="C374" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>VT</v>
+        <v>OH</v>
       </c>
       <c r="E374">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -9209,7 +9257,7 @@
       </c>
       <c r="C375" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>VT</v>
+        <v>OH</v>
       </c>
       <c r="E375">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -9232,7 +9280,7 @@
       </c>
       <c r="C376" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>VT</v>
+        <v>OH</v>
       </c>
       <c r="E376">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -9255,7 +9303,7 @@
       </c>
       <c r="C377" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>VT</v>
+        <v>OH</v>
       </c>
       <c r="E377">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -9278,7 +9326,7 @@
       </c>
       <c r="C378" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>VT</v>
+        <v>OH</v>
       </c>
       <c r="E378">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -9301,7 +9349,7 @@
       </c>
       <c r="C379" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>VT</v>
+        <v>OH</v>
       </c>
       <c r="E379">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -9324,7 +9372,7 @@
       </c>
       <c r="C380" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>VT</v>
+        <v>OH</v>
       </c>
       <c r="E380">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -9347,7 +9395,7 @@
       </c>
       <c r="C381" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>VT</v>
+        <v>OH</v>
       </c>
       <c r="E381">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -9370,7 +9418,7 @@
       </c>
       <c r="C382" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>VT</v>
+        <v>OH</v>
       </c>
       <c r="E382">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -9393,7 +9441,7 @@
       </c>
       <c r="C383" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>VT</v>
+        <v>OH</v>
       </c>
       <c r="E383">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -9416,7 +9464,7 @@
       </c>
       <c r="C384" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>VT</v>
+        <v>OH</v>
       </c>
       <c r="E384">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -9439,7 +9487,7 @@
       </c>
       <c r="C385" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>VT</v>
+        <v>OH</v>
       </c>
       <c r="E385">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -9462,7 +9510,7 @@
       </c>
       <c r="C386" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>VA</v>
+        <v>OK</v>
       </c>
       <c r="E386">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -9485,7 +9533,7 @@
       </c>
       <c r="C387" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>VA</v>
+        <v>OK</v>
       </c>
       <c r="E387">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -9508,7 +9556,7 @@
       </c>
       <c r="C388" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>VA</v>
+        <v>OK</v>
       </c>
       <c r="E388">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -9531,7 +9579,7 @@
       </c>
       <c r="C389" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>VA</v>
+        <v>OK</v>
       </c>
       <c r="E389">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -9554,7 +9602,7 @@
       </c>
       <c r="C390" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>VA</v>
+        <v>OK</v>
       </c>
       <c r="E390">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -9577,7 +9625,7 @@
       </c>
       <c r="C391" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>VA</v>
+        <v>OK</v>
       </c>
       <c r="E391">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -9600,7 +9648,7 @@
       </c>
       <c r="C392" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>VA</v>
+        <v>OK</v>
       </c>
       <c r="E392">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -9623,7 +9671,7 @@
       </c>
       <c r="C393" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>VA</v>
+        <v>OK</v>
       </c>
       <c r="E393">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -9646,7 +9694,7 @@
       </c>
       <c r="C394" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>VA</v>
+        <v>OK</v>
       </c>
       <c r="E394">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -9669,7 +9717,7 @@
       </c>
       <c r="C395" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>VA</v>
+        <v>OK</v>
       </c>
       <c r="E395">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -9692,7 +9740,7 @@
       </c>
       <c r="C396" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>VA</v>
+        <v>OK</v>
       </c>
       <c r="E396">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -9715,7 +9763,7 @@
       </c>
       <c r="C397" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>VA</v>
+        <v>OK</v>
       </c>
       <c r="E397">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -9738,7 +9786,7 @@
       </c>
       <c r="C398" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>WA</v>
+        <v>OR</v>
       </c>
       <c r="E398">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -9761,7 +9809,7 @@
       </c>
       <c r="C399" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>WA</v>
+        <v>OR</v>
       </c>
       <c r="E399">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -9784,7 +9832,7 @@
       </c>
       <c r="C400" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>WA</v>
+        <v>OR</v>
       </c>
       <c r="E400">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -9807,7 +9855,7 @@
       </c>
       <c r="C401" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>WA</v>
+        <v>OR</v>
       </c>
       <c r="E401">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -9830,7 +9878,7 @@
       </c>
       <c r="C402" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>WA</v>
+        <v>OR</v>
       </c>
       <c r="E402">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -9853,7 +9901,7 @@
       </c>
       <c r="C403" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>WA</v>
+        <v>OR</v>
       </c>
       <c r="E403">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -9876,7 +9924,7 @@
       </c>
       <c r="C404" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>WA</v>
+        <v>OR</v>
       </c>
       <c r="E404">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -9899,7 +9947,7 @@
       </c>
       <c r="C405" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>WA</v>
+        <v>OR</v>
       </c>
       <c r="E405">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -9922,7 +9970,7 @@
       </c>
       <c r="C406" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>WA</v>
+        <v>OR</v>
       </c>
       <c r="E406">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -9945,7 +9993,7 @@
       </c>
       <c r="C407" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>WA</v>
+        <v>OR</v>
       </c>
       <c r="E407">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -9968,7 +10016,7 @@
       </c>
       <c r="C408" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>WA</v>
+        <v>OR</v>
       </c>
       <c r="E408">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -9991,7 +10039,7 @@
       </c>
       <c r="C409" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>WA</v>
+        <v>OR</v>
       </c>
       <c r="E409">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -10014,7 +10062,7 @@
       </c>
       <c r="C410" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>WV</v>
+        <v>RI</v>
       </c>
       <c r="E410">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -10037,7 +10085,7 @@
       </c>
       <c r="C411" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>WV</v>
+        <v>RI</v>
       </c>
       <c r="E411">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -10060,7 +10108,7 @@
       </c>
       <c r="C412" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>WV</v>
+        <v>RI</v>
       </c>
       <c r="E412">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -10083,7 +10131,7 @@
       </c>
       <c r="C413" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>WV</v>
+        <v>RI</v>
       </c>
       <c r="E413">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -10106,7 +10154,7 @@
       </c>
       <c r="C414" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>WV</v>
+        <v>RI</v>
       </c>
       <c r="E414">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -10129,7 +10177,7 @@
       </c>
       <c r="C415" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>WV</v>
+        <v>RI</v>
       </c>
       <c r="E415">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -10152,7 +10200,7 @@
       </c>
       <c r="C416" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>WV</v>
+        <v>RI</v>
       </c>
       <c r="E416">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -10175,7 +10223,7 @@
       </c>
       <c r="C417" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>WV</v>
+        <v>RI</v>
       </c>
       <c r="E417">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -10198,7 +10246,7 @@
       </c>
       <c r="C418" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>WV</v>
+        <v>RI</v>
       </c>
       <c r="E418">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -10221,7 +10269,7 @@
       </c>
       <c r="C419" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>WV</v>
+        <v>RI</v>
       </c>
       <c r="E419">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -10244,7 +10292,7 @@
       </c>
       <c r="C420" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>WV</v>
+        <v>RI</v>
       </c>
       <c r="E420">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -10267,7 +10315,7 @@
       </c>
       <c r="C421" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>WV</v>
+        <v>RI</v>
       </c>
       <c r="E421">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -10290,7 +10338,7 @@
       </c>
       <c r="C422" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>WI</v>
+        <v>SC</v>
       </c>
       <c r="E422">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -10313,7 +10361,7 @@
       </c>
       <c r="C423" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>WI</v>
+        <v>SC</v>
       </c>
       <c r="E423">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -10336,7 +10384,7 @@
       </c>
       <c r="C424" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>WI</v>
+        <v>SC</v>
       </c>
       <c r="E424">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -10359,7 +10407,7 @@
       </c>
       <c r="C425" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>WI</v>
+        <v>SC</v>
       </c>
       <c r="E425">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -10382,7 +10430,7 @@
       </c>
       <c r="C426" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>WI</v>
+        <v>SC</v>
       </c>
       <c r="E426">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -10405,7 +10453,7 @@
       </c>
       <c r="C427" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>WI</v>
+        <v>SC</v>
       </c>
       <c r="E427">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -10428,7 +10476,7 @@
       </c>
       <c r="C428" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>WI</v>
+        <v>SC</v>
       </c>
       <c r="E428">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -10451,7 +10499,7 @@
       </c>
       <c r="C429" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>WI</v>
+        <v>SC</v>
       </c>
       <c r="E429">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -10474,7 +10522,7 @@
       </c>
       <c r="C430" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>WI</v>
+        <v>SC</v>
       </c>
       <c r="E430">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -10497,7 +10545,7 @@
       </c>
       <c r="C431" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>WI</v>
+        <v>SC</v>
       </c>
       <c r="E431">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -10520,7 +10568,7 @@
       </c>
       <c r="C432" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>WI</v>
+        <v>SC</v>
       </c>
       <c r="E432">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -10543,7 +10591,7 @@
       </c>
       <c r="C433" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>WI</v>
+        <v>SC</v>
       </c>
       <c r="E433">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -10566,7 +10614,7 @@
       </c>
       <c r="C434" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>WY</v>
+        <v>SD</v>
       </c>
       <c r="E434">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -10589,7 +10637,7 @@
       </c>
       <c r="C435" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>WY</v>
+        <v>SD</v>
       </c>
       <c r="E435">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -10612,7 +10660,7 @@
       </c>
       <c r="C436" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>WY</v>
+        <v>SD</v>
       </c>
       <c r="E436">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -10635,7 +10683,7 @@
       </c>
       <c r="C437" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>WY</v>
+        <v>SD</v>
       </c>
       <c r="E437">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -10658,7 +10706,7 @@
       </c>
       <c r="C438" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>WY</v>
+        <v>SD</v>
       </c>
       <c r="E438">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -10681,7 +10729,7 @@
       </c>
       <c r="C439" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>WY</v>
+        <v>SD</v>
       </c>
       <c r="E439">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -10704,7 +10752,7 @@
       </c>
       <c r="C440" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>WY</v>
+        <v>SD</v>
       </c>
       <c r="E440">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -10727,7 +10775,7 @@
       </c>
       <c r="C441" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>WY</v>
+        <v>SD</v>
       </c>
       <c r="E441">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -10750,7 +10798,7 @@
       </c>
       <c r="C442" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>WY</v>
+        <v>SD</v>
       </c>
       <c r="E442">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -10773,7 +10821,7 @@
       </c>
       <c r="C443" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>WY</v>
+        <v>SD</v>
       </c>
       <c r="E443">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -10796,7 +10844,7 @@
       </c>
       <c r="C444" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
-        <v>WY</v>
+        <v>SD</v>
       </c>
       <c r="E444">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
@@ -10819,16 +10867,2224 @@
       </c>
       <c r="C445" t="str">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
+        <v>SD</v>
+      </c>
+      <c r="E445">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
+        <v>12</v>
+      </c>
+      <c r="F445">
+        <v>1</v>
+      </c>
+      <c r="G445">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A446">
+        <v>0</v>
+      </c>
+      <c r="B446" t="s">
+        <v>36</v>
+      </c>
+      <c r="C446" t="str">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
+        <v>TN</v>
+      </c>
+      <c r="E446">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
+        <v>1</v>
+      </c>
+      <c r="F446">
+        <v>1</v>
+      </c>
+      <c r="G446">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
+        <v>11.99</v>
+      </c>
+    </row>
+    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A447">
+        <v>0</v>
+      </c>
+      <c r="B447" t="s">
+        <v>36</v>
+      </c>
+      <c r="C447" t="str">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
+        <v>TN</v>
+      </c>
+      <c r="E447">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
+        <v>2</v>
+      </c>
+      <c r="F447">
+        <v>1</v>
+      </c>
+      <c r="G447">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
+        <v>11.99</v>
+      </c>
+    </row>
+    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A448">
+        <v>0</v>
+      </c>
+      <c r="B448" t="s">
+        <v>36</v>
+      </c>
+      <c r="C448" t="str">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
+        <v>TN</v>
+      </c>
+      <c r="E448">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
+        <v>3</v>
+      </c>
+      <c r="F448">
+        <v>1</v>
+      </c>
+      <c r="G448">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A449">
+        <v>0</v>
+      </c>
+      <c r="B449" t="s">
+        <v>36</v>
+      </c>
+      <c r="C449" t="str">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
+        <v>TN</v>
+      </c>
+      <c r="E449">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
+        <v>4</v>
+      </c>
+      <c r="F449">
+        <v>1</v>
+      </c>
+      <c r="G449">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A450">
+        <v>0</v>
+      </c>
+      <c r="B450" t="s">
+        <v>36</v>
+      </c>
+      <c r="C450" t="str">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
+        <v>TN</v>
+      </c>
+      <c r="E450">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
+        <v>5</v>
+      </c>
+      <c r="F450">
+        <v>1</v>
+      </c>
+      <c r="G450">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A451">
+        <v>0</v>
+      </c>
+      <c r="B451" t="s">
+        <v>36</v>
+      </c>
+      <c r="C451" t="str">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
+        <v>TN</v>
+      </c>
+      <c r="E451">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
+        <v>6</v>
+      </c>
+      <c r="F451">
+        <v>1</v>
+      </c>
+      <c r="G451">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A452">
+        <v>0</v>
+      </c>
+      <c r="B452" t="s">
+        <v>36</v>
+      </c>
+      <c r="C452" t="str">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
+        <v>TN</v>
+      </c>
+      <c r="E452">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
+        <v>7</v>
+      </c>
+      <c r="F452">
+        <v>1</v>
+      </c>
+      <c r="G452">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A453">
+        <v>0</v>
+      </c>
+      <c r="B453" t="s">
+        <v>36</v>
+      </c>
+      <c r="C453" t="str">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
+        <v>TN</v>
+      </c>
+      <c r="E453">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
+        <v>8</v>
+      </c>
+      <c r="F453">
+        <v>1</v>
+      </c>
+      <c r="G453">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A454">
+        <v>0</v>
+      </c>
+      <c r="B454" t="s">
+        <v>36</v>
+      </c>
+      <c r="C454" t="str">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
+        <v>TN</v>
+      </c>
+      <c r="E454">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
+        <v>9</v>
+      </c>
+      <c r="F454">
+        <v>1</v>
+      </c>
+      <c r="G454">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A455">
+        <v>0</v>
+      </c>
+      <c r="B455" t="s">
+        <v>36</v>
+      </c>
+      <c r="C455" t="str">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
+        <v>TN</v>
+      </c>
+      <c r="E455">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
+        <v>10</v>
+      </c>
+      <c r="F455">
+        <v>1</v>
+      </c>
+      <c r="G455">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A456">
+        <v>0</v>
+      </c>
+      <c r="B456" t="s">
+        <v>36</v>
+      </c>
+      <c r="C456" t="str">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
+        <v>TN</v>
+      </c>
+      <c r="E456">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
+        <v>11</v>
+      </c>
+      <c r="F456">
+        <v>1</v>
+      </c>
+      <c r="G456">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A457">
+        <v>0</v>
+      </c>
+      <c r="B457" t="s">
+        <v>36</v>
+      </c>
+      <c r="C457" t="str">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
+        <v>TN</v>
+      </c>
+      <c r="E457">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
+        <v>12</v>
+      </c>
+      <c r="F457">
+        <v>1</v>
+      </c>
+      <c r="G457">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A458">
+        <v>0</v>
+      </c>
+      <c r="B458" t="s">
+        <v>36</v>
+      </c>
+      <c r="C458" t="str">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
+        <v>TX</v>
+      </c>
+      <c r="E458">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
+        <v>1</v>
+      </c>
+      <c r="F458">
+        <v>1</v>
+      </c>
+      <c r="G458">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
+        <v>11.99</v>
+      </c>
+    </row>
+    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A459">
+        <v>0</v>
+      </c>
+      <c r="B459" t="s">
+        <v>36</v>
+      </c>
+      <c r="C459" t="str">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
+        <v>TX</v>
+      </c>
+      <c r="E459">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
+        <v>2</v>
+      </c>
+      <c r="F459">
+        <v>1</v>
+      </c>
+      <c r="G459">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
+        <v>11.99</v>
+      </c>
+    </row>
+    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A460">
+        <v>0</v>
+      </c>
+      <c r="B460" t="s">
+        <v>36</v>
+      </c>
+      <c r="C460" t="str">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
+        <v>TX</v>
+      </c>
+      <c r="E460">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
+        <v>3</v>
+      </c>
+      <c r="F460">
+        <v>1</v>
+      </c>
+      <c r="G460">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A461">
+        <v>0</v>
+      </c>
+      <c r="B461" t="s">
+        <v>36</v>
+      </c>
+      <c r="C461" t="str">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
+        <v>TX</v>
+      </c>
+      <c r="E461">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
+        <v>4</v>
+      </c>
+      <c r="F461">
+        <v>1</v>
+      </c>
+      <c r="G461">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A462">
+        <v>0</v>
+      </c>
+      <c r="B462" t="s">
+        <v>36</v>
+      </c>
+      <c r="C462" t="str">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
+        <v>TX</v>
+      </c>
+      <c r="E462">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
+        <v>5</v>
+      </c>
+      <c r="F462">
+        <v>1</v>
+      </c>
+      <c r="G462">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A463">
+        <v>0</v>
+      </c>
+      <c r="B463" t="s">
+        <v>36</v>
+      </c>
+      <c r="C463" t="str">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
+        <v>TX</v>
+      </c>
+      <c r="E463">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
+        <v>6</v>
+      </c>
+      <c r="F463">
+        <v>1</v>
+      </c>
+      <c r="G463">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A464">
+        <v>0</v>
+      </c>
+      <c r="B464" t="s">
+        <v>36</v>
+      </c>
+      <c r="C464" t="str">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
+        <v>TX</v>
+      </c>
+      <c r="E464">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
+        <v>7</v>
+      </c>
+      <c r="F464">
+        <v>1</v>
+      </c>
+      <c r="G464">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A465">
+        <v>0</v>
+      </c>
+      <c r="B465" t="s">
+        <v>36</v>
+      </c>
+      <c r="C465" t="str">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
+        <v>TX</v>
+      </c>
+      <c r="E465">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
+        <v>8</v>
+      </c>
+      <c r="F465">
+        <v>1</v>
+      </c>
+      <c r="G465">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A466">
+        <v>0</v>
+      </c>
+      <c r="B466" t="s">
+        <v>36</v>
+      </c>
+      <c r="C466" t="str">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
+        <v>TX</v>
+      </c>
+      <c r="E466">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
+        <v>9</v>
+      </c>
+      <c r="F466">
+        <v>1</v>
+      </c>
+      <c r="G466">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A467">
+        <v>0</v>
+      </c>
+      <c r="B467" t="s">
+        <v>36</v>
+      </c>
+      <c r="C467" t="str">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
+        <v>TX</v>
+      </c>
+      <c r="E467">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
+        <v>10</v>
+      </c>
+      <c r="F467">
+        <v>1</v>
+      </c>
+      <c r="G467">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A468">
+        <v>0</v>
+      </c>
+      <c r="B468" t="s">
+        <v>36</v>
+      </c>
+      <c r="C468" t="str">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
+        <v>TX</v>
+      </c>
+      <c r="E468">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
+        <v>11</v>
+      </c>
+      <c r="F468">
+        <v>1</v>
+      </c>
+      <c r="G468">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A469">
+        <v>0</v>
+      </c>
+      <c r="B469" t="s">
+        <v>36</v>
+      </c>
+      <c r="C469" t="str">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
+        <v>TX</v>
+      </c>
+      <c r="E469">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
+        <v>12</v>
+      </c>
+      <c r="F469">
+        <v>1</v>
+      </c>
+      <c r="G469">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A470">
+        <v>0</v>
+      </c>
+      <c r="B470" t="s">
+        <v>36</v>
+      </c>
+      <c r="C470" t="str">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
+        <v>VA</v>
+      </c>
+      <c r="E470">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
+        <v>1</v>
+      </c>
+      <c r="F470">
+        <v>1</v>
+      </c>
+      <c r="G470">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
+        <v>11.99</v>
+      </c>
+    </row>
+    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A471">
+        <v>0</v>
+      </c>
+      <c r="B471" t="s">
+        <v>36</v>
+      </c>
+      <c r="C471" t="str">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
+        <v>VA</v>
+      </c>
+      <c r="E471">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
+        <v>2</v>
+      </c>
+      <c r="F471">
+        <v>1</v>
+      </c>
+      <c r="G471">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
+        <v>11.99</v>
+      </c>
+    </row>
+    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A472">
+        <v>0</v>
+      </c>
+      <c r="B472" t="s">
+        <v>36</v>
+      </c>
+      <c r="C472" t="str">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
+        <v>VA</v>
+      </c>
+      <c r="E472">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
+        <v>3</v>
+      </c>
+      <c r="F472">
+        <v>1</v>
+      </c>
+      <c r="G472">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A473">
+        <v>0</v>
+      </c>
+      <c r="B473" t="s">
+        <v>36</v>
+      </c>
+      <c r="C473" t="str">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
+        <v>VA</v>
+      </c>
+      <c r="E473">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
+        <v>4</v>
+      </c>
+      <c r="F473">
+        <v>1</v>
+      </c>
+      <c r="G473">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A474">
+        <v>0</v>
+      </c>
+      <c r="B474" t="s">
+        <v>36</v>
+      </c>
+      <c r="C474" t="str">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
+        <v>VA</v>
+      </c>
+      <c r="E474">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
+        <v>5</v>
+      </c>
+      <c r="F474">
+        <v>1</v>
+      </c>
+      <c r="G474">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A475">
+        <v>0</v>
+      </c>
+      <c r="B475" t="s">
+        <v>36</v>
+      </c>
+      <c r="C475" t="str">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
+        <v>VA</v>
+      </c>
+      <c r="E475">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
+        <v>6</v>
+      </c>
+      <c r="F475">
+        <v>1</v>
+      </c>
+      <c r="G475">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A476">
+        <v>0</v>
+      </c>
+      <c r="B476" t="s">
+        <v>36</v>
+      </c>
+      <c r="C476" t="str">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
+        <v>VA</v>
+      </c>
+      <c r="E476">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
+        <v>7</v>
+      </c>
+      <c r="F476">
+        <v>1</v>
+      </c>
+      <c r="G476">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A477">
+        <v>0</v>
+      </c>
+      <c r="B477" t="s">
+        <v>36</v>
+      </c>
+      <c r="C477" t="str">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
+        <v>VA</v>
+      </c>
+      <c r="E477">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
+        <v>8</v>
+      </c>
+      <c r="F477">
+        <v>1</v>
+      </c>
+      <c r="G477">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A478">
+        <v>0</v>
+      </c>
+      <c r="B478" t="s">
+        <v>36</v>
+      </c>
+      <c r="C478" t="str">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
+        <v>VA</v>
+      </c>
+      <c r="E478">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
+        <v>9</v>
+      </c>
+      <c r="F478">
+        <v>1</v>
+      </c>
+      <c r="G478">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A479">
+        <v>0</v>
+      </c>
+      <c r="B479" t="s">
+        <v>36</v>
+      </c>
+      <c r="C479" t="str">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
+        <v>VA</v>
+      </c>
+      <c r="E479">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
+        <v>10</v>
+      </c>
+      <c r="F479">
+        <v>1</v>
+      </c>
+      <c r="G479">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A480">
+        <v>0</v>
+      </c>
+      <c r="B480" t="s">
+        <v>36</v>
+      </c>
+      <c r="C480" t="str">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
+        <v>VA</v>
+      </c>
+      <c r="E480">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
+        <v>11</v>
+      </c>
+      <c r="F480">
+        <v>1</v>
+      </c>
+      <c r="G480">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A481">
+        <v>0</v>
+      </c>
+      <c r="B481" t="s">
+        <v>36</v>
+      </c>
+      <c r="C481" t="str">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
+        <v>VA</v>
+      </c>
+      <c r="E481">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
+        <v>12</v>
+      </c>
+      <c r="F481">
+        <v>1</v>
+      </c>
+      <c r="G481">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A482">
+        <v>0</v>
+      </c>
+      <c r="B482" t="s">
+        <v>36</v>
+      </c>
+      <c r="C482" t="str">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
+        <v>VT</v>
+      </c>
+      <c r="E482">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
+        <v>1</v>
+      </c>
+      <c r="F482">
+        <v>1</v>
+      </c>
+      <c r="G482">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
+        <v>11.99</v>
+      </c>
+    </row>
+    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A483">
+        <v>0</v>
+      </c>
+      <c r="B483" t="s">
+        <v>36</v>
+      </c>
+      <c r="C483" t="str">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
+        <v>VT</v>
+      </c>
+      <c r="E483">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
+        <v>2</v>
+      </c>
+      <c r="F483">
+        <v>1</v>
+      </c>
+      <c r="G483">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
+        <v>11.99</v>
+      </c>
+    </row>
+    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A484">
+        <v>0</v>
+      </c>
+      <c r="B484" t="s">
+        <v>36</v>
+      </c>
+      <c r="C484" t="str">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
+        <v>VT</v>
+      </c>
+      <c r="E484">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
+        <v>3</v>
+      </c>
+      <c r="F484">
+        <v>1</v>
+      </c>
+      <c r="G484">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A485">
+        <v>0</v>
+      </c>
+      <c r="B485" t="s">
+        <v>36</v>
+      </c>
+      <c r="C485" t="str">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
+        <v>VT</v>
+      </c>
+      <c r="E485">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
+        <v>4</v>
+      </c>
+      <c r="F485">
+        <v>1</v>
+      </c>
+      <c r="G485">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A486">
+        <v>0</v>
+      </c>
+      <c r="B486" t="s">
+        <v>36</v>
+      </c>
+      <c r="C486" t="str">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
+        <v>VT</v>
+      </c>
+      <c r="E486">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
+        <v>5</v>
+      </c>
+      <c r="F486">
+        <v>1</v>
+      </c>
+      <c r="G486">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A487">
+        <v>0</v>
+      </c>
+      <c r="B487" t="s">
+        <v>36</v>
+      </c>
+      <c r="C487" t="str">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
+        <v>VT</v>
+      </c>
+      <c r="E487">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
+        <v>6</v>
+      </c>
+      <c r="F487">
+        <v>1</v>
+      </c>
+      <c r="G487">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A488">
+        <v>0</v>
+      </c>
+      <c r="B488" t="s">
+        <v>36</v>
+      </c>
+      <c r="C488" t="str">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
+        <v>VT</v>
+      </c>
+      <c r="E488">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
+        <v>7</v>
+      </c>
+      <c r="F488">
+        <v>1</v>
+      </c>
+      <c r="G488">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A489">
+        <v>0</v>
+      </c>
+      <c r="B489" t="s">
+        <v>36</v>
+      </c>
+      <c r="C489" t="str">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
+        <v>VT</v>
+      </c>
+      <c r="E489">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
+        <v>8</v>
+      </c>
+      <c r="F489">
+        <v>1</v>
+      </c>
+      <c r="G489">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A490">
+        <v>0</v>
+      </c>
+      <c r="B490" t="s">
+        <v>36</v>
+      </c>
+      <c r="C490" t="str">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
+        <v>VT</v>
+      </c>
+      <c r="E490">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
+        <v>9</v>
+      </c>
+      <c r="F490">
+        <v>1</v>
+      </c>
+      <c r="G490">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A491">
+        <v>0</v>
+      </c>
+      <c r="B491" t="s">
+        <v>36</v>
+      </c>
+      <c r="C491" t="str">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
+        <v>VT</v>
+      </c>
+      <c r="E491">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
+        <v>10</v>
+      </c>
+      <c r="F491">
+        <v>1</v>
+      </c>
+      <c r="G491">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A492">
+        <v>0</v>
+      </c>
+      <c r="B492" t="s">
+        <v>36</v>
+      </c>
+      <c r="C492" t="str">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
+        <v>VT</v>
+      </c>
+      <c r="E492">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
+        <v>11</v>
+      </c>
+      <c r="F492">
+        <v>1</v>
+      </c>
+      <c r="G492">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A493">
+        <v>0</v>
+      </c>
+      <c r="B493" t="s">
+        <v>36</v>
+      </c>
+      <c r="C493" t="str">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
+        <v>VT</v>
+      </c>
+      <c r="E493">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
+        <v>12</v>
+      </c>
+      <c r="F493">
+        <v>1</v>
+      </c>
+      <c r="G493">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A494">
+        <v>0</v>
+      </c>
+      <c r="B494" t="s">
+        <v>36</v>
+      </c>
+      <c r="C494" t="str">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
+        <v>WA</v>
+      </c>
+      <c r="E494">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
+        <v>1</v>
+      </c>
+      <c r="F494">
+        <v>1</v>
+      </c>
+      <c r="G494">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
+        <v>11.99</v>
+      </c>
+    </row>
+    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A495">
+        <v>0</v>
+      </c>
+      <c r="B495" t="s">
+        <v>36</v>
+      </c>
+      <c r="C495" t="str">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
+        <v>WA</v>
+      </c>
+      <c r="E495">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
+        <v>2</v>
+      </c>
+      <c r="F495">
+        <v>1</v>
+      </c>
+      <c r="G495">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
+        <v>11.99</v>
+      </c>
+    </row>
+    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A496">
+        <v>0</v>
+      </c>
+      <c r="B496" t="s">
+        <v>36</v>
+      </c>
+      <c r="C496" t="str">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
+        <v>WA</v>
+      </c>
+      <c r="E496">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
+        <v>3</v>
+      </c>
+      <c r="F496">
+        <v>1</v>
+      </c>
+      <c r="G496">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A497">
+        <v>0</v>
+      </c>
+      <c r="B497" t="s">
+        <v>36</v>
+      </c>
+      <c r="C497" t="str">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
+        <v>WA</v>
+      </c>
+      <c r="E497">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
+        <v>4</v>
+      </c>
+      <c r="F497">
+        <v>1</v>
+      </c>
+      <c r="G497">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A498">
+        <v>0</v>
+      </c>
+      <c r="B498" t="s">
+        <v>36</v>
+      </c>
+      <c r="C498" t="str">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
+        <v>WA</v>
+      </c>
+      <c r="E498">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
+        <v>5</v>
+      </c>
+      <c r="F498">
+        <v>1</v>
+      </c>
+      <c r="G498">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A499">
+        <v>0</v>
+      </c>
+      <c r="B499" t="s">
+        <v>36</v>
+      </c>
+      <c r="C499" t="str">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
+        <v>WA</v>
+      </c>
+      <c r="E499">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
+        <v>6</v>
+      </c>
+      <c r="F499">
+        <v>1</v>
+      </c>
+      <c r="G499">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A500">
+        <v>0</v>
+      </c>
+      <c r="B500" t="s">
+        <v>36</v>
+      </c>
+      <c r="C500" t="str">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
+        <v>WA</v>
+      </c>
+      <c r="E500">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
+        <v>7</v>
+      </c>
+      <c r="F500">
+        <v>1</v>
+      </c>
+      <c r="G500">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A501">
+        <v>0</v>
+      </c>
+      <c r="B501" t="s">
+        <v>36</v>
+      </c>
+      <c r="C501" t="str">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
+        <v>WA</v>
+      </c>
+      <c r="E501">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
+        <v>8</v>
+      </c>
+      <c r="F501">
+        <v>1</v>
+      </c>
+      <c r="G501">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A502">
+        <v>0</v>
+      </c>
+      <c r="B502" t="s">
+        <v>36</v>
+      </c>
+      <c r="C502" t="str">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
+        <v>WA</v>
+      </c>
+      <c r="E502">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
+        <v>9</v>
+      </c>
+      <c r="F502">
+        <v>1</v>
+      </c>
+      <c r="G502">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A503">
+        <v>0</v>
+      </c>
+      <c r="B503" t="s">
+        <v>36</v>
+      </c>
+      <c r="C503" t="str">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
+        <v>WA</v>
+      </c>
+      <c r="E503">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
+        <v>10</v>
+      </c>
+      <c r="F503">
+        <v>1</v>
+      </c>
+      <c r="G503">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A504">
+        <v>0</v>
+      </c>
+      <c r="B504" t="s">
+        <v>36</v>
+      </c>
+      <c r="C504" t="str">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
+        <v>WA</v>
+      </c>
+      <c r="E504">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
+        <v>11</v>
+      </c>
+      <c r="F504">
+        <v>1</v>
+      </c>
+      <c r="G504">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A505">
+        <v>0</v>
+      </c>
+      <c r="B505" t="s">
+        <v>36</v>
+      </c>
+      <c r="C505" t="str">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
+        <v>WA</v>
+      </c>
+      <c r="E505">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
+        <v>12</v>
+      </c>
+      <c r="F505">
+        <v>1</v>
+      </c>
+      <c r="G505">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A506">
+        <v>0</v>
+      </c>
+      <c r="B506" t="s">
+        <v>36</v>
+      </c>
+      <c r="C506" t="str">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
+        <v>WI</v>
+      </c>
+      <c r="E506">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
+        <v>1</v>
+      </c>
+      <c r="F506">
+        <v>1</v>
+      </c>
+      <c r="G506">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
+        <v>11.99</v>
+      </c>
+    </row>
+    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A507">
+        <v>0</v>
+      </c>
+      <c r="B507" t="s">
+        <v>36</v>
+      </c>
+      <c r="C507" t="str">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
+        <v>WI</v>
+      </c>
+      <c r="E507">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
+        <v>2</v>
+      </c>
+      <c r="F507">
+        <v>1</v>
+      </c>
+      <c r="G507">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
+        <v>11.99</v>
+      </c>
+    </row>
+    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A508">
+        <v>0</v>
+      </c>
+      <c r="B508" t="s">
+        <v>36</v>
+      </c>
+      <c r="C508" t="str">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
+        <v>WI</v>
+      </c>
+      <c r="E508">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
+        <v>3</v>
+      </c>
+      <c r="F508">
+        <v>1</v>
+      </c>
+      <c r="G508">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A509">
+        <v>0</v>
+      </c>
+      <c r="B509" t="s">
+        <v>36</v>
+      </c>
+      <c r="C509" t="str">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
+        <v>WI</v>
+      </c>
+      <c r="E509">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
+        <v>4</v>
+      </c>
+      <c r="F509">
+        <v>1</v>
+      </c>
+      <c r="G509">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A510">
+        <v>0</v>
+      </c>
+      <c r="B510" t="s">
+        <v>36</v>
+      </c>
+      <c r="C510" t="str">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
+        <v>WI</v>
+      </c>
+      <c r="E510">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
+        <v>5</v>
+      </c>
+      <c r="F510">
+        <v>1</v>
+      </c>
+      <c r="G510">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A511">
+        <v>0</v>
+      </c>
+      <c r="B511" t="s">
+        <v>36</v>
+      </c>
+      <c r="C511" t="str">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
+        <v>WI</v>
+      </c>
+      <c r="E511">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
+        <v>6</v>
+      </c>
+      <c r="F511">
+        <v>1</v>
+      </c>
+      <c r="G511">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A512">
+        <v>0</v>
+      </c>
+      <c r="B512" t="s">
+        <v>36</v>
+      </c>
+      <c r="C512" t="str">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
+        <v>WI</v>
+      </c>
+      <c r="E512">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
+        <v>7</v>
+      </c>
+      <c r="F512">
+        <v>1</v>
+      </c>
+      <c r="G512">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A513">
+        <v>0</v>
+      </c>
+      <c r="B513" t="s">
+        <v>36</v>
+      </c>
+      <c r="C513" t="str">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
+        <v>WI</v>
+      </c>
+      <c r="E513">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
+        <v>8</v>
+      </c>
+      <c r="F513">
+        <v>1</v>
+      </c>
+      <c r="G513">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A514">
+        <v>0</v>
+      </c>
+      <c r="B514" t="s">
+        <v>36</v>
+      </c>
+      <c r="C514" t="str">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
+        <v>WI</v>
+      </c>
+      <c r="E514">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
+        <v>9</v>
+      </c>
+      <c r="F514">
+        <v>1</v>
+      </c>
+      <c r="G514">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A515">
+        <v>0</v>
+      </c>
+      <c r="B515" t="s">
+        <v>36</v>
+      </c>
+      <c r="C515" t="str">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
+        <v>WI</v>
+      </c>
+      <c r="E515">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
+        <v>10</v>
+      </c>
+      <c r="F515">
+        <v>1</v>
+      </c>
+      <c r="G515">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="516" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A516">
+        <v>0</v>
+      </c>
+      <c r="B516" t="s">
+        <v>36</v>
+      </c>
+      <c r="C516" t="str">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
+        <v>WI</v>
+      </c>
+      <c r="E516">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
+        <v>11</v>
+      </c>
+      <c r="F516">
+        <v>1</v>
+      </c>
+      <c r="G516">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="517" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A517">
+        <v>0</v>
+      </c>
+      <c r="B517" t="s">
+        <v>36</v>
+      </c>
+      <c r="C517" t="str">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
+        <v>WI</v>
+      </c>
+      <c r="E517">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
+        <v>12</v>
+      </c>
+      <c r="F517">
+        <v>1</v>
+      </c>
+      <c r="G517">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A518">
+        <v>0</v>
+      </c>
+      <c r="B518" t="s">
+        <v>36</v>
+      </c>
+      <c r="C518" t="str">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
+        <v>WV</v>
+      </c>
+      <c r="E518">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
+        <v>1</v>
+      </c>
+      <c r="F518">
+        <v>1</v>
+      </c>
+      <c r="G518">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
+        <v>11.99</v>
+      </c>
+    </row>
+    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A519">
+        <v>0</v>
+      </c>
+      <c r="B519" t="s">
+        <v>36</v>
+      </c>
+      <c r="C519" t="str">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
+        <v>WV</v>
+      </c>
+      <c r="E519">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
+        <v>2</v>
+      </c>
+      <c r="F519">
+        <v>1</v>
+      </c>
+      <c r="G519">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
+        <v>11.99</v>
+      </c>
+    </row>
+    <row r="520" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A520">
+        <v>0</v>
+      </c>
+      <c r="B520" t="s">
+        <v>36</v>
+      </c>
+      <c r="C520" t="str">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
+        <v>WV</v>
+      </c>
+      <c r="E520">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
+        <v>3</v>
+      </c>
+      <c r="F520">
+        <v>1</v>
+      </c>
+      <c r="G520">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="521" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A521">
+        <v>0</v>
+      </c>
+      <c r="B521" t="s">
+        <v>36</v>
+      </c>
+      <c r="C521" t="str">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
+        <v>WV</v>
+      </c>
+      <c r="E521">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
+        <v>4</v>
+      </c>
+      <c r="F521">
+        <v>1</v>
+      </c>
+      <c r="G521">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="522" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A522">
+        <v>0</v>
+      </c>
+      <c r="B522" t="s">
+        <v>36</v>
+      </c>
+      <c r="C522" t="str">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
+        <v>WV</v>
+      </c>
+      <c r="E522">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
+        <v>5</v>
+      </c>
+      <c r="F522">
+        <v>1</v>
+      </c>
+      <c r="G522">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="523" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A523">
+        <v>0</v>
+      </c>
+      <c r="B523" t="s">
+        <v>36</v>
+      </c>
+      <c r="C523" t="str">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
+        <v>WV</v>
+      </c>
+      <c r="E523">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
+        <v>6</v>
+      </c>
+      <c r="F523">
+        <v>1</v>
+      </c>
+      <c r="G523">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="524" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A524">
+        <v>0</v>
+      </c>
+      <c r="B524" t="s">
+        <v>36</v>
+      </c>
+      <c r="C524" t="str">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
+        <v>WV</v>
+      </c>
+      <c r="E524">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
+        <v>7</v>
+      </c>
+      <c r="F524">
+        <v>1</v>
+      </c>
+      <c r="G524">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="525" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A525">
+        <v>0</v>
+      </c>
+      <c r="B525" t="s">
+        <v>36</v>
+      </c>
+      <c r="C525" t="str">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
+        <v>WV</v>
+      </c>
+      <c r="E525">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
+        <v>8</v>
+      </c>
+      <c r="F525">
+        <v>1</v>
+      </c>
+      <c r="G525">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="526" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A526">
+        <v>0</v>
+      </c>
+      <c r="B526" t="s">
+        <v>36</v>
+      </c>
+      <c r="C526" t="str">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
+        <v>WV</v>
+      </c>
+      <c r="E526">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
+        <v>9</v>
+      </c>
+      <c r="F526">
+        <v>1</v>
+      </c>
+      <c r="G526">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="527" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A527">
+        <v>0</v>
+      </c>
+      <c r="B527" t="s">
+        <v>36</v>
+      </c>
+      <c r="C527" t="str">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
+        <v>WV</v>
+      </c>
+      <c r="E527">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
+        <v>10</v>
+      </c>
+      <c r="F527">
+        <v>1</v>
+      </c>
+      <c r="G527">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="528" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A528">
+        <v>0</v>
+      </c>
+      <c r="B528" t="s">
+        <v>36</v>
+      </c>
+      <c r="C528" t="str">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
+        <v>WV</v>
+      </c>
+      <c r="E528">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
+        <v>11</v>
+      </c>
+      <c r="F528">
+        <v>1</v>
+      </c>
+      <c r="G528">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A529">
+        <v>0</v>
+      </c>
+      <c r="B529" t="s">
+        <v>36</v>
+      </c>
+      <c r="C529" t="str">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
+        <v>WV</v>
+      </c>
+      <c r="E529">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
+        <v>12</v>
+      </c>
+      <c r="F529">
+        <v>1</v>
+      </c>
+      <c r="G529">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A530">
+        <v>0</v>
+      </c>
+      <c r="B530" t="s">
+        <v>36</v>
+      </c>
+      <c r="C530" t="str">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
         <v>WY</v>
       </c>
-      <c r="E445">
+      <c r="E530">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
+        <v>1</v>
+      </c>
+      <c r="F530">
+        <v>1</v>
+      </c>
+      <c r="G530">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
+        <v>11.99</v>
+      </c>
+    </row>
+    <row r="531" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A531">
+        <v>0</v>
+      </c>
+      <c r="B531" t="s">
+        <v>36</v>
+      </c>
+      <c r="C531" t="str">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
+        <v>WY</v>
+      </c>
+      <c r="E531">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
+        <v>2</v>
+      </c>
+      <c r="F531">
+        <v>1</v>
+      </c>
+      <c r="G531">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
+        <v>11.99</v>
+      </c>
+    </row>
+    <row r="532" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A532">
+        <v>0</v>
+      </c>
+      <c r="B532" t="s">
+        <v>36</v>
+      </c>
+      <c r="C532" t="str">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
+        <v>WY</v>
+      </c>
+      <c r="E532">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
+        <v>3</v>
+      </c>
+      <c r="F532">
+        <v>1</v>
+      </c>
+      <c r="G532">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="533" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A533">
+        <v>0</v>
+      </c>
+      <c r="B533" t="s">
+        <v>36</v>
+      </c>
+      <c r="C533" t="str">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
+        <v>WY</v>
+      </c>
+      <c r="E533">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
+        <v>4</v>
+      </c>
+      <c r="F533">
+        <v>1</v>
+      </c>
+      <c r="G533">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="534" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A534">
+        <v>0</v>
+      </c>
+      <c r="B534" t="s">
+        <v>36</v>
+      </c>
+      <c r="C534" t="str">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
+        <v>WY</v>
+      </c>
+      <c r="E534">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
+        <v>5</v>
+      </c>
+      <c r="F534">
+        <v>1</v>
+      </c>
+      <c r="G534">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="535" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A535">
+        <v>0</v>
+      </c>
+      <c r="B535" t="s">
+        <v>36</v>
+      </c>
+      <c r="C535" t="str">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
+        <v>WY</v>
+      </c>
+      <c r="E535">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
+        <v>6</v>
+      </c>
+      <c r="F535">
+        <v>1</v>
+      </c>
+      <c r="G535">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="536" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A536">
+        <v>0</v>
+      </c>
+      <c r="B536" t="s">
+        <v>36</v>
+      </c>
+      <c r="C536" t="str">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
+        <v>WY</v>
+      </c>
+      <c r="E536">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
+        <v>7</v>
+      </c>
+      <c r="F536">
+        <v>1</v>
+      </c>
+      <c r="G536">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="537" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A537">
+        <v>0</v>
+      </c>
+      <c r="B537" t="s">
+        <v>36</v>
+      </c>
+      <c r="C537" t="str">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
+        <v>WY</v>
+      </c>
+      <c r="E537">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
+        <v>8</v>
+      </c>
+      <c r="F537">
+        <v>1</v>
+      </c>
+      <c r="G537">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="538" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A538">
+        <v>0</v>
+      </c>
+      <c r="B538" t="s">
+        <v>36</v>
+      </c>
+      <c r="C538" t="str">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
+        <v>WY</v>
+      </c>
+      <c r="E538">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
+        <v>9</v>
+      </c>
+      <c r="F538">
+        <v>1</v>
+      </c>
+      <c r="G538">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="539" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A539">
+        <v>0</v>
+      </c>
+      <c r="B539" t="s">
+        <v>36</v>
+      </c>
+      <c r="C539" t="str">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
+        <v>WY</v>
+      </c>
+      <c r="E539">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
+        <v>10</v>
+      </c>
+      <c r="F539">
+        <v>1</v>
+      </c>
+      <c r="G539">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="540" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A540">
+        <v>0</v>
+      </c>
+      <c r="B540" t="s">
+        <v>36</v>
+      </c>
+      <c r="C540" t="str">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
+        <v>WY</v>
+      </c>
+      <c r="E540">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
+        <v>11</v>
+      </c>
+      <c r="F540">
+        <v>1</v>
+      </c>
+      <c r="G540">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="541" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A541">
+        <v>0</v>
+      </c>
+      <c r="B541" t="s">
+        <v>36</v>
+      </c>
+      <c r="C541" t="str">
+        <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!B:B)),"",INDEX(RegionStates!A:A,INT(((ROW()-1)-1)/COUNTA(Prices!B:B)+1)))</f>
+        <v>WY</v>
+      </c>
+      <c r="E541">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!A:A,MOD(ROW()-2,COUNTA(Prices!A:A))+1))</f>
         <v>12</v>
       </c>
-      <c r="F445">
-        <v>1</v>
-      </c>
-      <c r="G445">
+      <c r="F541">
+        <v>1</v>
+      </c>
+      <c r="G541">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
         <v>0</v>
       </c>
@@ -10845,10 +13101,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A37"/>
+  <dimension ref="A1:A45"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:XFD32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10856,188 +13112,228 @@
     <col min="1" max="1" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="10" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="11" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="12" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="14" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="15" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="16" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="17" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="18" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="21" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="22" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="23" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="24" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="25" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="27" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="31" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="32" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="33" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="35" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="37" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="39" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="42" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="43" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="45" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
         <v>42</v>
       </c>
     </row>
@@ -11055,7 +13351,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
